--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sost-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sost-Lrp4.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.051757666666667</v>
+        <v>0.6795853333333334</v>
       </c>
       <c r="N2">
-        <v>3.155273</v>
+        <v>2.038756</v>
       </c>
       <c r="O2">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799233</v>
       </c>
       <c r="P2">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799234</v>
       </c>
       <c r="Q2">
-        <v>0.05368381482200001</v>
+        <v>0.034687394584</v>
       </c>
       <c r="R2">
-        <v>0.4831543333980001</v>
+        <v>0.312186551256</v>
       </c>
       <c r="S2">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799233</v>
       </c>
       <c r="T2">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>7.71965</v>
       </c>
       <c r="O3">
-        <v>0.3014579903540003</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="P3">
-        <v>0.3014579903540004</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="Q3">
         <v>0.1313421251</v>
@@ -635,10 +635,10 @@
         <v>1.1820791259</v>
       </c>
       <c r="S3">
-        <v>0.3014579903540003</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="T3">
-        <v>0.3014579903540004</v>
+        <v>0.3136748993401273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.872404</v>
+        <v>2.840162333333334</v>
       </c>
       <c r="N4">
-        <v>8.617212</v>
+        <v>8.520487000000001</v>
       </c>
       <c r="O4">
-        <v>0.3365084442914349</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="P4">
-        <v>0.3365084442914351</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="Q4">
-        <v>0.146613244968</v>
+        <v>0.144967565818</v>
       </c>
       <c r="R4">
-        <v>1.319519204712</v>
+        <v>1.304708092362</v>
       </c>
       <c r="S4">
-        <v>0.3365084442914349</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="T4">
-        <v>0.3365084442914351</v>
+        <v>0.3462155540800247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.038526333333333</v>
+        <v>2.110486666666667</v>
       </c>
       <c r="N5">
-        <v>6.115579</v>
+        <v>6.33146</v>
       </c>
       <c r="O5">
-        <v>0.2388178421549069</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="P5">
-        <v>0.238817842154907</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="Q5">
-        <v>0.104050461106</v>
+        <v>0.10772346044</v>
       </c>
       <c r="R5">
-        <v>0.9364541499540001</v>
+        <v>0.96951114396</v>
       </c>
       <c r="S5">
-        <v>0.2388178421549069</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="T5">
-        <v>0.238817842154907</v>
+        <v>0.2572681505218555</v>
       </c>
     </row>
   </sheetData>
